--- a/StructureDefinition-VunsLabPatient.xlsx
+++ b/StructureDefinition-VunsLabPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:33:24+02:00</t>
+    <t>2025-05-23T16:57:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
